--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parkjr/Dropbox/SharedFolder/2022_ML_COVID19/Code/final_code/_GitHub/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parkjr/Library/CloudStorage/Dropbox/SharedFolder/2022_ML_COVID19/Code/final_code/_GitHub2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C6B025-6409-EA44-86E5-A1C971BD2757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46382037-3A90-DC49-8120-17B250FC27D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{ADB27A6D-912E-F144-BA9E-35D7C2962140}"/>
+    <workbookView xWindow="12800" yWindow="500" windowWidth="12800" windowHeight="15500" xr2:uid="{ADB27A6D-912E-F144-BA9E-35D7C2962140}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="18"/>
@@ -505,9 +505,9 @@
         <v>44829</v>
       </c>
       <c r="B2" s="1">
-        <v>25521</v>
-      </c>
-      <c r="C2" s="3">
+        <v>25515</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="3">
@@ -522,9 +522,9 @@
         <v>44830</v>
       </c>
       <c r="B3" s="1">
-        <v>13936</v>
-      </c>
-      <c r="C3" s="3">
+        <v>13935</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" s="3">
@@ -539,9 +539,9 @@
         <v>44831</v>
       </c>
       <c r="B4" s="1">
-        <v>39099</v>
-      </c>
-      <c r="C4" s="3">
+        <v>39090</v>
+      </c>
+      <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" s="3">
@@ -556,9 +556,9 @@
         <v>44832</v>
       </c>
       <c r="B5" s="1">
-        <v>35756</v>
-      </c>
-      <c r="C5" s="3">
+        <v>35745</v>
+      </c>
+      <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" s="3">
@@ -573,9 +573,9 @@
         <v>44833</v>
       </c>
       <c r="B6" s="1">
-        <v>30611</v>
-      </c>
-      <c r="C6" s="3">
+        <v>30600</v>
+      </c>
+      <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" s="3">
@@ -590,9 +590,9 @@
         <v>44834</v>
       </c>
       <c r="B7" s="1">
-        <v>28213</v>
-      </c>
-      <c r="C7" s="3">
+        <v>28211</v>
+      </c>
+      <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" s="3">
@@ -607,9 +607,9 @@
         <v>44835</v>
       </c>
       <c r="B8" s="1">
-        <v>26649</v>
-      </c>
-      <c r="C8" s="3">
+        <v>26646</v>
+      </c>
+      <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" s="3">
@@ -624,9 +624,9 @@
         <v>44836</v>
       </c>
       <c r="B9" s="1">
-        <v>23334</v>
-      </c>
-      <c r="C9" s="3">
+        <v>23332</v>
+      </c>
+      <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" s="3">
@@ -641,9 +641,9 @@
         <v>44837</v>
       </c>
       <c r="B10" s="1">
-        <v>12011</v>
-      </c>
-      <c r="C10" s="3">
+        <v>12010</v>
+      </c>
+      <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" s="3">
@@ -658,9 +658,9 @@
         <v>44838</v>
       </c>
       <c r="B11" s="1">
-        <v>16307</v>
-      </c>
-      <c r="C11" s="3">
+        <v>16306</v>
+      </c>
+      <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" s="3">
@@ -675,9 +675,9 @@
         <v>44839</v>
       </c>
       <c r="B12" s="1">
-        <v>34656</v>
-      </c>
-      <c r="C12" s="3">
+        <v>34647</v>
+      </c>
+      <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" s="3">
@@ -692,9 +692,9 @@
         <v>44840</v>
       </c>
       <c r="B13" s="1">
-        <v>28552</v>
-      </c>
-      <c r="C13" s="3">
+        <v>28550</v>
+      </c>
+      <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" s="3">
@@ -709,9 +709,9 @@
         <v>44841</v>
       </c>
       <c r="B14" s="1">
-        <v>22232</v>
-      </c>
-      <c r="C14" s="3">
+        <v>22225</v>
+      </c>
+      <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" s="3">
@@ -726,9 +726,9 @@
         <v>44842</v>
       </c>
       <c r="B15" s="1">
-        <v>19361</v>
-      </c>
-      <c r="C15" s="3">
+        <v>19359</v>
+      </c>
+      <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" s="3">
@@ -743,9 +743,9 @@
         <v>44843</v>
       </c>
       <c r="B16" s="1">
-        <v>17585</v>
-      </c>
-      <c r="C16" s="3">
+        <v>17584</v>
+      </c>
+      <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" s="3">
@@ -760,9 +760,9 @@
         <v>44844</v>
       </c>
       <c r="B17" s="1">
-        <v>8927</v>
-      </c>
-      <c r="C17" s="3">
+        <v>8921</v>
+      </c>
+      <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" s="3">
@@ -777,9 +777,9 @@
         <v>44845</v>
       </c>
       <c r="B18" s="1">
-        <v>15370</v>
-      </c>
-      <c r="C18" s="3">
+        <v>15365</v>
+      </c>
+      <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" s="3">
@@ -794,9 +794,9 @@
         <v>44846</v>
       </c>
       <c r="B19" s="1">
-        <v>30446</v>
-      </c>
-      <c r="C19" s="3">
+        <v>30439</v>
+      </c>
+      <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" s="3">
@@ -811,9 +811,9 @@
         <v>44847</v>
       </c>
       <c r="B20" s="1">
-        <v>26869</v>
-      </c>
-      <c r="C20" s="3">
+        <v>26858</v>
+      </c>
+      <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" s="3">
@@ -828,9 +828,9 @@
         <v>44848</v>
       </c>
       <c r="B21" s="1">
-        <v>23512</v>
-      </c>
-      <c r="C21" s="3">
+        <v>23511</v>
+      </c>
+      <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" s="3">
@@ -845,9 +845,9 @@
         <v>44849</v>
       </c>
       <c r="B22" s="1">
-        <v>22776</v>
-      </c>
-      <c r="C22" s="3">
+        <v>22771</v>
+      </c>
+      <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" s="3">
@@ -862,9 +862,9 @@
         <v>44850</v>
       </c>
       <c r="B23" s="1">
-        <v>21367</v>
-      </c>
-      <c r="C23" s="3">
+        <v>21366</v>
+      </c>
+      <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" s="3">
@@ -879,9 +879,9 @@
         <v>44851</v>
       </c>
       <c r="B24" s="1">
-        <v>10943</v>
-      </c>
-      <c r="C24" s="3">
+        <v>10940</v>
+      </c>
+      <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" s="3">
@@ -896,9 +896,9 @@
         <v>44852</v>
       </c>
       <c r="B25" s="1">
-        <v>33131</v>
-      </c>
-      <c r="C25" s="3">
+        <v>33128</v>
+      </c>
+      <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" s="3">
@@ -913,9 +913,9 @@
         <v>44853</v>
       </c>
       <c r="B26" s="1">
-        <v>29420</v>
-      </c>
-      <c r="C26" s="3">
+        <v>29413</v>
+      </c>
+      <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" s="3">
@@ -930,9 +930,9 @@
         <v>44854</v>
       </c>
       <c r="B27" s="1">
-        <v>25323</v>
-      </c>
-      <c r="C27" s="3">
+        <v>25312</v>
+      </c>
+      <c r="C27">
         <v>1</v>
       </c>
       <c r="D27" s="3">
@@ -947,9 +947,9 @@
         <v>44855</v>
       </c>
       <c r="B28" s="1">
-        <v>24673</v>
-      </c>
-      <c r="C28" s="3">
+        <v>24668</v>
+      </c>
+      <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" s="3">
@@ -964,9 +964,9 @@
         <v>44856</v>
       </c>
       <c r="B29" s="1">
-        <v>26844</v>
-      </c>
-      <c r="C29" s="3">
+        <v>26842</v>
+      </c>
+      <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" s="3">
@@ -981,9 +981,9 @@
         <v>44857</v>
       </c>
       <c r="B30" s="1">
-        <v>26168</v>
-      </c>
-      <c r="C30" s="3">
+        <v>26167</v>
+      </c>
+      <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" s="3">
@@ -1000,7 +1000,7 @@
       <c r="B31" s="1">
         <v>14242</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31">
         <v>1</v>
       </c>
       <c r="D31" s="3">
@@ -1015,9 +1015,9 @@
         <v>44859</v>
       </c>
       <c r="B32" s="1">
-        <v>43667</v>
-      </c>
-      <c r="C32" s="3">
+        <v>43662</v>
+      </c>
+      <c r="C32">
         <v>1</v>
       </c>
       <c r="D32" s="3">
@@ -1032,9 +1032,9 @@
         <v>44860</v>
       </c>
       <c r="B33" s="1">
-        <v>40736</v>
-      </c>
-      <c r="C33" s="3">
+        <v>40731</v>
+      </c>
+      <c r="C33">
         <v>1</v>
       </c>
       <c r="D33" s="3">
@@ -1049,9 +1049,9 @@
         <v>44861</v>
       </c>
       <c r="B34" s="1">
-        <v>34919</v>
-      </c>
-      <c r="C34" s="3">
+        <v>34914</v>
+      </c>
+      <c r="C34">
         <v>1</v>
       </c>
       <c r="D34" s="3">
@@ -1066,9 +1066,9 @@
         <v>44862</v>
       </c>
       <c r="B35" s="1">
-        <v>35853</v>
-      </c>
-      <c r="C35" s="3">
+        <v>35852</v>
+      </c>
+      <c r="C35">
         <v>1</v>
       </c>
       <c r="D35" s="3">
@@ -1083,9 +1083,9 @@
         <v>44863</v>
       </c>
       <c r="B36" s="1">
-        <v>37256</v>
-      </c>
-      <c r="C36" s="3">
+        <v>37251</v>
+      </c>
+      <c r="C36">
         <v>1</v>
       </c>
       <c r="D36" s="3">
@@ -1100,9 +1100,9 @@
         <v>44864</v>
       </c>
       <c r="B37" s="1">
-        <v>34445</v>
-      </c>
-      <c r="C37" s="3">
+        <v>34444</v>
+      </c>
+      <c r="C37">
         <v>1</v>
       </c>
       <c r="D37" s="3">
@@ -1117,9 +1117,9 @@
         <v>44865</v>
       </c>
       <c r="B38" s="1">
-        <v>18447</v>
-      </c>
-      <c r="C38" s="3">
+        <v>18444</v>
+      </c>
+      <c r="C38">
         <v>1</v>
       </c>
       <c r="D38" s="3">
